--- a/inasistencias-7b/alumnos-7b.xlsx
+++ b/inasistencias-7b/alumnos-7b.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="asisstencia" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">elpescadorderio5@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">Maximiliano Leonel</t>
@@ -325,23 +328,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF232629"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -350,17 +336,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,6 +362,9 @@
       <c r="D1" s="2" t="n">
         <v>45785</v>
       </c>
+      <c r="E1" s="2" t="n">
+        <v>45792</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -390,6 +379,9 @@
       <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -404,6 +396,9 @@
       <c r="D3" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -418,6 +413,9 @@
       <c r="D4" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -432,6 +430,9 @@
       <c r="D5" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -446,6 +447,9 @@
       <c r="D6" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E6" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -460,214 +464,262 @@
       <c r="D7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="E7" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -676,19 +728,26 @@
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="n">
         <f aca="false">COUNTIF(D2:D23,"P")</f>
         <v>22</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E23,"P")</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/inasistencias-7b/alumnos-7b.xlsx
+++ b/inasistencias-7b/alumnos-7b.xlsx
@@ -5,10 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="asisstencia" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="notas" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="1-UML" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="2-da" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="3-dcu" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="4-java" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="positivos" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +26,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="301">
+  <si>
+    <t xml:space="preserve">Nro</t>
+  </si>
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -230,15 +239,706 @@
   </si>
   <si>
     <t xml:space="preserve">47793055@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-uml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-DA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-DCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-java gen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4+positivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valoracion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo requerido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calificación/10,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  15:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 de abril de 2025  11:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 17 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de abril de 2025  10:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 20 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de abril de 2025  10:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 30 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de abril de 2025  10:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 8 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de abril de 2025  10:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 41 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de abril de 2025  10:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 2 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 de abril de 2025  11:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 54 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 de abril de 2025  23:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 38 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 de abril de 2025  23:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 7 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 de abril de 2025  23:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 53 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 de abril de 2025  23:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 55 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 30 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 55 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 46 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  22:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 58 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 32 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  14:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 33 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 57 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  14:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 minutos 3 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  16:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 7 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  15:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 15 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  16:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  14:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  14:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 59 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  03:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 12 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 31 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 40 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 52 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 14 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 20 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  03:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 18 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  03:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 30 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 18 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 20 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 27 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 19 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 21 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  19:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 48 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  16:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 55 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  15:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 41 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  16:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  19:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 59 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  19:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 47 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  16:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  16:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 minutos 34 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  03:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 37 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  02:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 14 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  03:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 25 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  02:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 25 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  14:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 minutos 56 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  13:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 9 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 35 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  14:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  13:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 32 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  15:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 17 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  16:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 10 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  16:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 25 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  16:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 19 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 38 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 37 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  13:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  17:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  13:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 15 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 15 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  17:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 21 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  13:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  17:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 2 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 de abril de 2025  10:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 16 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 de abril de 2025  10:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 4 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 7 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 1 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 4 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  16:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 49 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 47 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  15:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 minutos 9 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  20:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  15:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 minutos 6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 42 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  15:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 34 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  14:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 14 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  13:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 7 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 de abril de 2025  13:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 10 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 22 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 de abril de 2025  16:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 19 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  15:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 15 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  14:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 58 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  14:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 24 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  16:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 59 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  16:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 31 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  04:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 24 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  04:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 41 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  04:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 minutos 37 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  04:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 11 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  03:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 52 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  03:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 minutos 52 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  14:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 6 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  15:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 11 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 minutos 43 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  16:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  13:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 56 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  16:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 40 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 de abril de 2025  20:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 minutos 51 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  15:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 26 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  15:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 2 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  15:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  16:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 minutos 39 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  16:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  13:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 3 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  13:02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -306,7 +1006,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -319,6 +1019,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -328,6 +1036,83 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -336,21 +1121,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.52734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.19"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -359,16 +1145,19 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="n">
         <v>45785</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="F1" s="2" t="n">
         <v>45792</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -376,16 +1165,19 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -393,16 +1185,19 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>6</v>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -410,16 +1205,19 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>6</v>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -427,16 +1225,19 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>6</v>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
@@ -444,16 +1245,19 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>6</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
@@ -461,16 +1265,19 @@
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>6</v>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -478,16 +1285,19 @@
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>6</v>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>27</v>
@@ -495,16 +1305,19 @@
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>6</v>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>30</v>
@@ -512,16 +1325,19 @@
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>6</v>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
@@ -529,16 +1345,19 @@
       <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>6</v>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>36</v>
@@ -546,16 +1365,19 @@
       <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>6</v>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>39</v>
@@ -563,16 +1385,19 @@
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>6</v>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>42</v>
@@ -580,16 +1405,19 @@
       <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>6</v>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>45</v>
@@ -597,16 +1425,19 @@
       <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>6</v>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>48</v>
@@ -614,16 +1445,19 @@
       <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>6</v>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>7</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>51</v>
@@ -631,16 +1465,19 @@
       <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>6</v>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>7</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>54</v>
@@ -648,16 +1485,19 @@
       <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>6</v>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>7</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>57</v>
@@ -665,16 +1505,19 @@
       <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>6</v>
+      <c r="D19" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>7</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>60</v>
@@ -682,16 +1525,19 @@
       <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>6</v>
+      <c r="D20" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>7</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>63</v>
@@ -699,16 +1545,19 @@
       <c r="C21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>6</v>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>7</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>66</v>
@@ -716,37 +1565,43 @@
       <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>6</v>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>6</v>
+      <c r="D23" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="0" t="n">
-        <f aca="false">COUNTIF(D2:D23,"P")</f>
-        <v>22</v>
-      </c>
       <c r="E24" s="0" t="n">
         <f aca="false">COUNTIF(E2:E23,"P")</f>
+        <v>22</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">COUNTIF(F2:F23,"P")</f>
         <v>19</v>
       </c>
     </row>
@@ -759,4 +1614,4299 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.95"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">F2+G2/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C2:E2,H2),0)</f>
+        <v>2</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f aca="false">IF(I2&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">F3+G3/2</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C3:E3,H3),0)</f>
+        <v>2</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f aca="false">IF(I3&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">F4+G4/2</f>
+        <v>7.5</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C4:E4,H4),0)</f>
+        <v>4</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f aca="false">IF(I4&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">F5+G5/2</f>
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C5:E5,H5),0)</f>
+        <v>5</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f aca="false">IF(I5&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">F6+G6/2</f>
+        <v>7.5</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C6:E6,H6),0)</f>
+        <v>4</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <f aca="false">IF(I6&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">F7+G7/2</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C7:E7,H7),0)</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <f aca="false">IF(I7&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">F8+G8/2</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C8:E8,H8),0)</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <f aca="false">IF(I8&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">F9+G9/2</f>
+        <v>7.5</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C9:E9,H9),0)</f>
+        <v>4</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f aca="false">IF(I9&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">F10+G10/2</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C10:E10,H10),0)</f>
+        <v>3</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f aca="false">IF(I10&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">F11+G11/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C11:E11,H11),0)</f>
+        <v>5</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f aca="false">IF(I11&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">F12+G12/2</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C12:E12,H12),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f aca="false">IF(I12&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">F13+G13/2</f>
+        <v>7</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C13:E13,H13),0)</f>
+        <v>4</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f aca="false">IF(I13&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">F14+G14/2</f>
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C14:E14,H14),0)</f>
+        <v>5</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f aca="false">IF(I14&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">F15+G15/2</f>
+        <v>9.5</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C15:E15,H15),0)</f>
+        <v>4</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f aca="false">IF(I15&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">F16+G16/2</f>
+        <v>11</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C16:E16,H16),0)</f>
+        <v>5</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f aca="false">IF(I16&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">F17+G17/2</f>
+        <v>10.5</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C17:E17,H17),0)</f>
+        <v>7</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f aca="false">IF(I17&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">F18+G18/2</f>
+        <v>10.5</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C18:E18,H18),0)</f>
+        <v>8</v>
+      </c>
+      <c r="J18" s="4" t="str">
+        <f aca="false">IF(I18&lt;7,"TEP","TEA")</f>
+        <v>TEA</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">F19+G19/2</f>
+        <v>10</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C19:E19,H19),0)</f>
+        <v>5</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <f aca="false">IF(I19&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">F20+G20/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C20:E20,H20),0)</f>
+        <v>4</v>
+      </c>
+      <c r="J20" s="4" t="str">
+        <f aca="false">IF(I20&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">F21+G21/2</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C21:E21,H21),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="4" t="str">
+        <f aca="false">IF(I21&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <f aca="false">F22+G22/2</f>
+        <v>7</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C22:E22,H22),0)</f>
+        <v>3</v>
+      </c>
+      <c r="J22" s="4" t="str">
+        <f aca="false">IF(I22&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">F23+G23/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <f aca="false">ROUND(AVERAGE(C23:E23,H23),0)</f>
+        <v>5</v>
+      </c>
+      <c r="J23" s="4" t="str">
+        <f aca="false">IF(I23&lt;7,"TEP","TEA")</f>
+        <v>TEP</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I2:I23">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J23">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"TEP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.19"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">AVERAGE(F18:F22)</f>
+        <v>7.4</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">ROUND(MAX(H18,G18),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I27,"&gt;0")</f>
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.12"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">AVERAGE(F18:F21)</f>
+        <v>8.5</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">ROUND(MAX(H18,G18),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">COUNTIF(I1:I26,"&gt;0")</f>
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I91"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H90" activeCellId="0" sqref="H90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">AVERAGE(F2:F4)</f>
+        <v>3.66666666666667</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">ROUND(MAX(H2,G2),0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">AVERAGE(F5:F6)</f>
+        <v>5</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">ROUND(MAX(H5,G5),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">AVERAGE(F7:F11)</f>
+        <v>5.2</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">ROUND(MAX(H7,G7),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">AVERAGE(F12:F15)</f>
+        <v>6</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">ROUND(MAX(H12,G12),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">AVERAGE(F17:F18)</f>
+        <v>5.5</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">ROUND(MAX(H17,G17),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">AVERAGE(F19:F22)</f>
+        <v>2.75</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">ROUND(MAX(H19,G19),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">AVERAGE(F24:F32)</f>
+        <v>5.33333333333333</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">ROUND(MAX(H24,G24),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">AVERAGE(F33:F40)</f>
+        <v>4.875</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <f aca="false">ROUND(MAX(H33,G33),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <f aca="false">AVERAGE(F41:F45)</f>
+        <v>5.2</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <f aca="false">ROUND(MAX(H41,G41),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <f aca="false">AVERAGE(F47:F52)</f>
+        <v>6.16666666666667</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <f aca="false">ROUND(MAX(H47,G47),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <f aca="false">AVERAGE(F54:F58)</f>
+        <v>6</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <f aca="false">ROUND(MAX(H54,G54),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <f aca="false">AVERAGE(F59:F65)</f>
+        <v>5.14285714285714</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <f aca="false">ROUND(MAX(H59,G59),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <f aca="false">AVERAGE(F67:F72)</f>
+        <v>5.5</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <f aca="false">ROUND(MAX(H67,G67),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <f aca="false">AVERAGE(F73:F75)</f>
+        <v>5.66666666666667</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <f aca="false">ROUND(MAX(H73,G73),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <f aca="false">AVERAGE(F76:F79)</f>
+        <v>5</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <f aca="false">ROUND(MAX(H76,G76),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <f aca="false">AVERAGE(F82:F89)</f>
+        <v>5.75</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <f aca="false">ROUND(MAX(H82,G82),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H90" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I89,"&gt;0")</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.19"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">AVERAGE(F4:F6)</f>
+        <v>7</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">ROUND(MAX(H4,G4),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">AVERAGE(F11:F14)</f>
+        <v>6</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">ROUND(MAX(H11,G11),0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">AVERAGE(F16:F17)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">ROUND(MAX(H16,G16),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">AVERAGE(F21:F22)</f>
+        <v>8.5</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">ROUND(MAX(H21,G21),0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">AVERAGE(F27:F28)</f>
+        <v>7</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">ROUND(MAX(H27,G27),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">AVERAGE(F30:F31)</f>
+        <v>7</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <f aca="false">ROUND(MAX(H30,G30),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">AVERAGE(F32:F33)</f>
+        <v>6.5</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <f aca="false">ROUND(MAX(H32,G32),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I33,"&gt;0")</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>45743</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">COUNTIF(C2:C23,"&gt;0")</f>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/inasistencias-7b/alumnos-7b.xlsx
+++ b/inasistencias-7b/alumnos-7b.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="309">
   <si>
     <t xml:space="preserve">Nro</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">Dirección de correo</t>
   </si>
   <si>
+    <t xml:space="preserve">obs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Martín Gabriel</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t xml:space="preserve">ebulgarella456@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lautaro Martin</t>
   </si>
   <si>
@@ -97,7 +103,7 @@
     <t xml:space="preserve">elpescadorderio5@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
+    <t xml:space="preserve">T</t>
   </si>
   <si>
     <t xml:space="preserve">Maximiliano Leonel</t>
@@ -109,6 +115,9 @@
     <t xml:space="preserve">maxigrecoleo@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pablo Gonzalo</t>
   </si>
   <si>
@@ -217,109 +226,124 @@
     <t xml:space="preserve">Stadelmanluciano2077@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Walter</t>
+    <t xml:space="preserve">Alan Mauricio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torrez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46960470@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villarreal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47793055@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total presentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total con tarddes y muy tarders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-uml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-DA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-DCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-java gen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4+positivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promedio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valoracion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-redes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rep 19-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp1-if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp2-swicth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp3-ciclos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo requerido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calificación/10,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 de abril de 2025  15:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 de abril de 2025  11:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 17 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de abril de 2025  10:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutos 20 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de abril de 2025  10:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 minutos 30 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de abril de 2025  10:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 minutos 8 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de abril de 2025  10:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 minutos 41 segundos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 de abril de 2025  10:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 minutos 2 segundos</t>
   </si>
   <si>
     <t xml:space="preserve">Stahler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">walterstahler@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alan Mauricio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torrez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46960470@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villarreal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47793055@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-uml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-DA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-DCU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-java gen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4+positivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promedio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valoracion </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finalizado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiempo requerido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calificación/10,00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">segundo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 de abril de 2025  15:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 de abril de 2025  11:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 minutos 17 segundos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 de abril de 2025  10:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 minutos 20 segundos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 de abril de 2025  10:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 minutos 30 segundos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 de abril de 2025  10:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 minutos 8 segundos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 de abril de 2025  10:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 minutos 41 segundos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 de abril de 2025  10:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 minutos 2 segundos</t>
   </si>
   <si>
     <t xml:space="preserve">total</t>
@@ -935,10 +959,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -964,12 +989,24 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA726"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1006,7 +1043,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1023,7 +1060,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1099,7 +1144,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFFA726"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1121,18 +1166,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="17.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.19"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="31.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="9.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1154,25 +1200,67 @@
       <c r="F1" s="2" t="n">
         <v>45792</v>
       </c>
+      <c r="G1" s="2" t="n">
+        <v>45799</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45827</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>45841</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,19 +1268,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,19 +1306,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,19 +1344,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>7</v>
+      <c r="M5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,19 +1382,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,19 +1420,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0.680555555555555</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1280,19 +1461,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0.618055555555556</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,19 +1502,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,19 +1540,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,19 +1578,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,19 +1616,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,19 +1654,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,19 +1692,40 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,19 +1733,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,19 +1771,37 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,19 +1809,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,19 +1847,37 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1500,19 +1885,40 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>0.652777777777778</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,19 +1926,37 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1540,19 +1964,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1560,49 +2002,83 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>7</v>
+      <c r="D23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">COUNTIF(E2:E22,"P")</f>
+        <v>21</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">COUNTIF(F2:F22,"P")</f>
+        <v>19</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">COUNTIF(G2:G22,"P")</f>
+        <v>15</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">COUNTIF(I2:I22,"P")</f>
+        <v>17</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">COUNTIF(K2:K22,"P")</f>
+        <v>17</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <f aca="false">COUNTIF(L2:L22,"P")</f>
+        <v>17</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <f aca="false">COUNTIF(M2:M22,"P")</f>
+        <v>17</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <f aca="false">COUNTIF(N2:N22,"P")</f>
+        <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="0" t="n">
-        <f aca="false">COUNTIF(E2:E23,"P")</f>
-        <v>22</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <f aca="false">COUNTIF(F2:F23,"P")</f>
-        <v>19</v>
+      <c r="D24" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="0" t="e">
+        <f aca="false">SUM( (G2:G22="P") + (G2:G22="M") )#ref!asistencia E123/5</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -1621,16 +2097,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="9.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.95"/>
   </cols>
   <sheetData>
@@ -1642,36 +2119,51 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -1692,7 +2184,7 @@
         <f aca="false">F2+G2/2</f>
         <v>1.5</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C2:E2,H2),0)</f>
         <v>2</v>
       </c>
@@ -1700,13 +2192,27 @@
         <f aca="false">IF(I2&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -1724,7 +2230,7 @@
         <f aca="false">F3+G3/2</f>
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C3:E3,H3),0)</f>
         <v>2</v>
       </c>
@@ -1732,13 +2238,27 @@
         <f aca="false">IF(I3&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -1759,7 +2279,7 @@
         <f aca="false">F4+G4/2</f>
         <v>7.5</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C4:E4,H4),0)</f>
         <v>4</v>
       </c>
@@ -1767,13 +2287,27 @@
         <f aca="false">IF(I4&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -1791,7 +2325,7 @@
         <f aca="false">F5+G5/2</f>
         <v>9</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C5:E5,H5),0)</f>
         <v>5</v>
       </c>
@@ -1799,13 +2333,27 @@
         <f aca="false">IF(I5&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -1826,7 +2374,7 @@
         <f aca="false">F6+G6/2</f>
         <v>7.5</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C6:E6,H6),0)</f>
         <v>4</v>
       </c>
@@ -1834,13 +2382,27 @@
         <f aca="false">IF(I6&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -1858,7 +2420,7 @@
         <f aca="false">F7+G7/2</f>
         <v>1</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C7:E7,H7),0)</f>
         <v>2</v>
       </c>
@@ -1866,13 +2428,27 @@
         <f aca="false">IF(I7&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -1890,7 +2466,7 @@
         <f aca="false">F8+G8/2</f>
         <v>1</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C8:E8,H8),0)</f>
         <v>2</v>
       </c>
@@ -1898,13 +2474,27 @@
         <f aca="false">IF(I8&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -1925,7 +2515,7 @@
         <f aca="false">F9+G9/2</f>
         <v>7.5</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C9:E9,H9),0)</f>
         <v>4</v>
       </c>
@@ -1933,13 +2523,27 @@
         <f aca="false">IF(I9&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -1957,7 +2561,7 @@
         <f aca="false">F10+G10/2</f>
         <v>1</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C10:E10,H10),0)</f>
         <v>3</v>
       </c>
@@ -1965,13 +2569,27 @@
         <f aca="false">IF(I10&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -1992,7 +2610,7 @@
         <f aca="false">F11+G11/2</f>
         <v>8.5</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C11:E11,H11),0)</f>
         <v>5</v>
       </c>
@@ -2000,13 +2618,27 @@
         <f aca="false">IF(I11&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2024,7 +2656,7 @@
         <f aca="false">F12+G12/2</f>
         <v>1</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C12:E12,H12),0)</f>
         <v>1</v>
       </c>
@@ -2032,13 +2664,27 @@
         <f aca="false">IF(I12&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
+      <c r="B13" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -2056,7 +2702,7 @@
         <f aca="false">F13+G13/2</f>
         <v>7</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C13:E13,H13),0)</f>
         <v>4</v>
       </c>
@@ -2064,13 +2710,27 @@
         <f aca="false">IF(I13&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -2088,7 +2748,7 @@
         <f aca="false">F14+G14/2</f>
         <v>10</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C14:E14,H14),0)</f>
         <v>5</v>
       </c>
@@ -2096,13 +2756,27 @@
         <f aca="false">IF(I14&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>46</v>
+      <c r="B15" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -2123,7 +2797,7 @@
         <f aca="false">F15+G15/2</f>
         <v>9.5</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C15:E15,H15),0)</f>
         <v>4</v>
       </c>
@@ -2131,13 +2805,27 @@
         <f aca="false">IF(I15&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -2158,7 +2846,7 @@
         <f aca="false">F16+G16/2</f>
         <v>11</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C16:E16,H16),0)</f>
         <v>5</v>
       </c>
@@ -2166,13 +2854,27 @@
         <f aca="false">IF(I16&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>52</v>
+      <c r="B17" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>8</v>
@@ -2193,7 +2895,7 @@
         <f aca="false">F17+G17/2</f>
         <v>10.5</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C17:E17,H17),0)</f>
         <v>7</v>
       </c>
@@ -2201,13 +2903,27 @@
         <f aca="false">IF(I17&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>8</v>
@@ -2228,7 +2944,7 @@
         <f aca="false">F18+G18/2</f>
         <v>10.5</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C18:E18,H18),0)</f>
         <v>8</v>
       </c>
@@ -2236,13 +2952,27 @@
         <f aca="false">IF(I18&lt;7,"TEP","TEA")</f>
         <v>TEA</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -2260,7 +2990,7 @@
         <f aca="false">F19+G19/2</f>
         <v>10</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C19:E19,H19),0)</f>
         <v>5</v>
       </c>
@@ -2268,13 +2998,27 @@
         <f aca="false">IF(I19&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
@@ -2295,7 +3039,7 @@
         <f aca="false">F20+G20/2</f>
         <v>8.5</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C20:E20,H20),0)</f>
         <v>4</v>
       </c>
@@ -2303,13 +3047,27 @@
         <f aca="false">IF(I20&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -2318,30 +3076,44 @@
         <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H21" s="0" t="n">
         <f aca="false">F21+G21/2</f>
-        <v>1</v>
-      </c>
-      <c r="I21" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I21" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C21:E21,H21),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" s="4" t="str">
         <f aca="false">IF(I21&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>67</v>
+      <c r="B22" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -2350,66 +3122,48 @@
         <v>1</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="G22" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="H22" s="0" t="n">
         <f aca="false">F22+G22/2</f>
-        <v>7</v>
-      </c>
-      <c r="I22" s="3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I22" s="4" t="n">
         <f aca="false">ROUND(AVERAGE(C22:E22,H22),0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J22" s="4" t="str">
         <f aca="false">IF(I22&lt;7,"TEP","TEA")</f>
         <v>TEP</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <f aca="false">F23+G23/2</f>
-        <v>8.5</v>
-      </c>
-      <c r="I23" s="3" t="n">
-        <f aca="false">ROUND(AVERAGE(C23:E23,H23),0)</f>
-        <v>5</v>
-      </c>
-      <c r="J23" s="4" t="str">
-        <f aca="false">IF(I23&lt;7,"TEP","TEA")</f>
-        <v>TEP</v>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I23">
+  <conditionalFormatting sqref="I2:I22">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J23">
+  <conditionalFormatting sqref="J2:L22">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"TEP"</formula>
     </cfRule>
@@ -2435,12 +3189,12 @@
       <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.19"/>
   </cols>
   <sheetData>
@@ -2449,22 +3203,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2472,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -2486,7 +3240,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -2500,7 +3254,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -2514,7 +3268,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -2528,7 +3282,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -2542,7 +3296,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -2556,7 +3310,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -2570,7 +3324,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -2584,16 +3338,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>3</v>
@@ -2607,7 +3361,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -2621,7 +3375,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -2635,7 +3389,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -2649,7 +3403,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -2663,7 +3417,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -2677,7 +3431,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -2691,16 +3445,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -2714,16 +3468,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>9</v>
@@ -2742,13 +3496,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8</v>
@@ -2756,13 +3510,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>7</v>
@@ -2770,13 +3524,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>7</v>
@@ -2784,13 +3538,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>6</v>
@@ -2801,7 +3555,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -2815,7 +3569,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
@@ -2829,7 +3583,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
@@ -2866,9 +3620,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H28" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="I28" s="0" t="n">
         <f aca="false">COUNTIF(I2:I27,"&gt;0")</f>
@@ -2897,7 +3651,7 @@
       <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
@@ -2918,22 +3672,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2941,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -2955,7 +3709,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -2969,7 +3723,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -2983,7 +3737,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
@@ -2997,7 +3751,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
@@ -3011,7 +3765,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1</v>
@@ -3025,7 +3779,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -3039,7 +3793,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -3053,7 +3807,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
@@ -3067,7 +3821,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
@@ -3081,7 +3835,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -3095,7 +3849,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -3109,7 +3863,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -3123,7 +3877,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -3137,7 +3891,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -3151,16 +3905,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>10</v>
@@ -3174,16 +3928,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>10</v>
@@ -3202,13 +3956,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>8</v>
@@ -3216,13 +3970,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>8</v>
@@ -3230,13 +3984,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>8</v>
@@ -3247,7 +4001,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -3261,7 +4015,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -3275,7 +4029,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
@@ -3314,7 +4068,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H27" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="I27" s="0" t="n">
         <f aca="false">COUNTIF(I1:I26,"&gt;0")</f>
@@ -3337,17 +4091,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H90" activeCellId="0" sqref="H90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.2"/>
   </cols>
   <sheetData>
@@ -3356,22 +4110,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3379,16 +4133,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>5</v>
@@ -3407,13 +4161,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>3</v>
@@ -3421,13 +4175,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
@@ -3438,16 +4192,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -3466,13 +4220,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>3</v>
@@ -3483,16 +4237,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>8</v>
@@ -3511,13 +4265,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
@@ -3525,13 +4279,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>6</v>
@@ -3539,13 +4293,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>3</v>
@@ -3553,13 +4307,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>2</v>
@@ -3570,16 +4324,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>8</v>
@@ -3598,13 +4352,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>6</v>
@@ -3612,13 +4366,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>6</v>
@@ -3626,13 +4380,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>4</v>
@@ -3640,13 +4394,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>3</v>
@@ -3657,16 +4411,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>8</v>
@@ -3685,13 +4439,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>3</v>
@@ -3702,16 +4456,16 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>5</v>
@@ -3730,13 +4484,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>3</v>
@@ -3744,13 +4498,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>2</v>
@@ -3758,13 +4512,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
@@ -3775,16 +4529,16 @@
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>3</v>
@@ -3798,16 +4552,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -3826,13 +4580,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>7</v>
@@ -3840,13 +4594,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>7</v>
@@ -3854,13 +4608,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>6</v>
@@ -3868,13 +4622,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>5</v>
@@ -3882,13 +4636,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>4</v>
@@ -3896,13 +4650,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>4</v>
@@ -3910,13 +4664,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>3</v>
@@ -3924,13 +4678,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2</v>
@@ -3941,16 +4695,16 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>7</v>
@@ -3969,13 +4723,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>6</v>
@@ -3983,13 +4737,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>5</v>
@@ -3997,13 +4751,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>5</v>
@@ -4011,13 +4765,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>5</v>
@@ -4025,13 +4779,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>5</v>
@@ -4039,13 +4793,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>4</v>
@@ -4053,13 +4807,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>2</v>
@@ -4070,16 +4824,16 @@
         <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>10</v>
@@ -4098,13 +4852,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>8</v>
@@ -4112,13 +4866,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>4</v>
@@ -4126,13 +4880,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>3</v>
@@ -4140,13 +4894,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>1</v>
@@ -4157,7 +4911,7 @@
         <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>1</v>
@@ -4171,16 +4925,16 @@
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>8</v>
@@ -4199,13 +4953,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>7</v>
@@ -4213,13 +4967,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>7</v>
@@ -4227,13 +4981,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>7</v>
@@ -4241,13 +4995,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>5</v>
@@ -4255,13 +5009,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>3</v>
@@ -4272,16 +5026,16 @@
         <v>13</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>7</v>
@@ -4295,16 +5049,16 @@
         <v>14</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>8</v>
@@ -4323,13 +5077,13 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>6</v>
@@ -4337,13 +5091,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>6</v>
@@ -4351,13 +5105,13 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>5</v>
@@ -4365,13 +5119,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>5</v>
@@ -4382,16 +5136,16 @@
         <v>15</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>6</v>
@@ -4410,13 +5164,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>6</v>
@@ -4424,13 +5178,13 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>6</v>
@@ -4438,13 +5192,13 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>5</v>
@@ -4452,13 +5206,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>5</v>
@@ -4466,13 +5220,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>4</v>
@@ -4480,13 +5234,13 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>4</v>
@@ -4497,7 +5251,7 @@
         <v>16</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>1</v>
@@ -4511,16 +5265,16 @@
         <v>17</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>10</v>
@@ -4539,13 +5293,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>6</v>
@@ -4553,13 +5307,13 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>5</v>
@@ -4567,13 +5321,13 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>4</v>
@@ -4581,13 +5335,13 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>4</v>
@@ -4595,13 +5349,13 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>4</v>
@@ -4612,16 +5366,16 @@
         <v>18</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>10</v>
@@ -4640,13 +5394,13 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F74" s="0" t="n">
         <v>6</v>
@@ -4654,13 +5408,13 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>1</v>
@@ -4671,16 +5425,16 @@
         <v>19</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F76" s="0" t="n">
         <v>9</v>
@@ -4699,13 +5453,13 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F77" s="0" t="n">
         <v>5</v>
@@ -4713,13 +5467,13 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F78" s="0" t="n">
         <v>3</v>
@@ -4727,13 +5481,13 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F79" s="0" t="n">
         <v>3</v>
@@ -4744,7 +5498,7 @@
         <v>20</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="F80" s="0" t="n">
         <v>1</v>
@@ -4764,10 +5518,10 @@
         <v>67</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F81" s="0" t="n">
         <v>2</v>
@@ -4787,10 +5541,10 @@
         <v>69</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F82" s="0" t="n">
         <v>10</v>
@@ -4812,10 +5566,10 @@
         <v>69</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F83" s="0" t="n">
         <v>9</v>
@@ -4826,10 +5580,10 @@
         <v>69</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F84" s="0" t="n">
         <v>8</v>
@@ -4840,10 +5594,10 @@
         <v>69</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F85" s="0" t="n">
         <v>6</v>
@@ -4854,10 +5608,10 @@
         <v>69</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>6</v>
@@ -4868,10 +5622,10 @@
         <v>69</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F87" s="0" t="n">
         <v>4</v>
@@ -4882,10 +5636,10 @@
         <v>69</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F88" s="0" t="n">
         <v>2</v>
@@ -4896,10 +5650,10 @@
         <v>69</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="F89" s="0" t="n">
         <v>1</v>
@@ -4907,33 +5661,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H90" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="I90" s="0" t="n">
         <f aca="false">COUNTIF(I2:I89,"&gt;0")</f>
         <v>22</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4950,18 +5684,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.19"/>
   </cols>
   <sheetData>
@@ -4970,22 +5704,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>77</v>
-      </c>
       <c r="H1" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4993,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -5007,7 +5741,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -5021,16 +5755,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>9</v>
@@ -5049,13 +5783,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>7</v>
@@ -5063,13 +5797,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -5080,16 +5814,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -5103,16 +5837,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
@@ -5126,7 +5860,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -5140,7 +5874,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
@@ -5154,16 +5888,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -5182,13 +5916,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>6</v>
@@ -5196,13 +5930,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>5</v>
@@ -5210,13 +5944,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>3</v>
@@ -5227,7 +5961,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
@@ -5241,16 +5975,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>10</v>
@@ -5269,13 +6003,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>5</v>
@@ -5286,7 +6020,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -5300,16 +6034,16 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>7</v>
@@ -5323,16 +6057,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>10</v>
@@ -5346,16 +6080,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>10</v>
@@ -5374,13 +6108,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>7</v>
@@ -5391,16 +6125,16 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>9</v>
@@ -5414,16 +6148,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>10</v>
@@ -5437,16 +6171,16 @@
         <v>17</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>10</v>
@@ -5460,16 +6194,16 @@
         <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>10</v>
@@ -5483,16 +6217,16 @@
         <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>9</v>
@@ -5511,13 +6245,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>5</v>
@@ -5528,7 +6262,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>1</v>
@@ -5548,10 +6282,10 @@
         <v>67</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>8</v>
@@ -5573,10 +6307,10 @@
         <v>67</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>6</v>
@@ -5593,10 +6327,10 @@
         <v>69</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>10</v>
@@ -5618,10 +6352,10 @@
         <v>69</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>3</v>
@@ -5629,20 +6363,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H34" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="I34" s="0" t="n">
         <f aca="false">COUNTIF(I2:I33,"&gt;0")</f>
         <v>22</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5665,7 +6392,7 @@
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
@@ -5687,7 +6414,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -5698,7 +6425,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5706,7 +6433,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -5717,7 +6444,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5725,7 +6452,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -5736,7 +6463,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5744,7 +6471,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5752,7 +6479,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>3</v>
@@ -5763,7 +6490,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5771,7 +6498,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -5782,7 +6509,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5790,7 +6517,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5798,7 +6525,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5806,7 +6533,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -5817,7 +6544,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>4</v>
@@ -5828,7 +6555,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -5839,7 +6566,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -5850,7 +6577,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5858,7 +6585,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
@@ -5869,7 +6596,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5893,7 +6620,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">COUNTIF(C2:C23,"&gt;0")</f>

--- a/inasistencias-7b/alumnos-7b.xlsx
+++ b/inasistencias-7b/alumnos-7b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="asisstencia" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="411">
   <si>
     <t xml:space="preserve">total</t>
   </si>
@@ -267,7 +267,7 @@
     <t xml:space="preserve">total presentes</t>
   </si>
   <si>
-    <t xml:space="preserve">c</t>
+    <t xml:space="preserve">media falta</t>
   </si>
   <si>
     <t xml:space="preserve">total con tarddes y muy tarders</t>
@@ -1514,20 +1514,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X9" activeCellId="0" sqref="X9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="17.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="31.19"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="9" min="5" style="0" width="8.69"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="8.32"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="12" min="11" style="0" width="8.69"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="13" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="19" min="15" style="0" width="8.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1610,6 +1613,18 @@
       <c r="T2" s="2" t="n">
         <v>45855</v>
       </c>
+      <c r="U2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -1674,6 +1689,12 @@
       <c r="U3" s="4" t="n">
         <v>0.652777777777778</v>
       </c>
+      <c r="V3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1735,6 +1756,12 @@
       <c r="T4" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="V4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1796,6 +1823,12 @@
       <c r="T5" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="V5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1857,6 +1890,12 @@
       <c r="T6" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="V6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1918,6 +1957,12 @@
       <c r="T7" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="V7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1982,6 +2027,12 @@
       <c r="T8" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -2046,6 +2097,15 @@
       <c r="T9" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="V9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.645833333333333</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -2107,6 +2167,12 @@
       <c r="T10" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="V10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -2168,6 +2234,12 @@
       <c r="T11" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="V11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -2229,6 +2301,12 @@
       <c r="T12" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="V12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -2290,6 +2368,15 @@
       <c r="T13" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="V13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="X13" s="4" t="n">
+        <v>0.666666666666667</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -2351,6 +2438,12 @@
       <c r="T14" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="V14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -2415,6 +2508,12 @@
       <c r="T15" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="V15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -2479,6 +2578,12 @@
       <c r="U16" s="4" t="n">
         <v>0.652777777777778</v>
       </c>
+      <c r="V16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -2540,6 +2645,15 @@
       <c r="T17" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="V17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="X17" s="4" t="n">
+        <v>0.666666666666667</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -2601,6 +2715,15 @@
       <c r="T18" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="V18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="X18" s="4" t="n">
+        <v>0.666666666666667</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -2662,6 +2785,12 @@
       <c r="T19" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="V19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -2726,6 +2855,12 @@
       <c r="T20" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -2787,6 +2922,12 @@
       <c r="T21" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="V21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -2848,6 +2989,12 @@
       <c r="T22" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="V22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -2912,8 +3059,17 @@
       <c r="U23" s="4" t="n">
         <v>0.652777777777778</v>
       </c>
+      <c r="V23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
+        <v>6</v>
+      </c>
       <c r="D24" s="0" t="s">
         <v>77</v>
       </c>
@@ -2949,13 +3105,71 @@
         <f aca="false">COUNTIF(N3:N23,"P")</f>
         <v>18</v>
       </c>
-      <c r="T24" s="0" t="s">
+      <c r="T24" s="0" t="n">
+        <f aca="false">COUNTIF(T3:T23,"P")</f>
+        <v>15</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <f aca="false">COUNTIF(V3:V23,"P")</f>
+        <v>17</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <f aca="false">COUNTIF(W3:W23,"P")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <f aca="false">COUNTIF(T3:T23,"M")</f>
+        <v>3</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <f aca="false">COUNTIF(V3:V23,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <f aca="false">COUNTIF(W3:W23,"M")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <f aca="false">COUNTIF(T3:T23,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <f aca="false">COUNTIF(V3:V23,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <f aca="false">COUNTIF(W3:W23,"T")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <f aca="false">SUM(T24:T26)</f>
+        <v>18</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <f aca="false">SUM(V24:V26)</f>
+        <v>17</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <f aca="false">SUM(W24:W26)</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2980,7 +3194,7 @@
       <selection pane="topLeft" activeCell="I51" activeCellId="0" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
@@ -3975,7 +4189,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
@@ -4520,7 +4734,7 @@
       <selection pane="topLeft" activeCell="H105" activeCellId="0" sqref="H105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.43"/>
@@ -6034,11 +6248,11 @@
   </sheetPr>
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
@@ -7292,7 +7506,7 @@
       <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
@@ -7754,7 +7968,7 @@
       <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.57"/>
@@ -8898,7 +9112,7 @@
       <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
@@ -9344,7 +9558,7 @@
       <selection pane="topLeft" activeCell="I46" activeCellId="0" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.64"/>
@@ -10505,7 +10719,7 @@
       <selection pane="topLeft" activeCell="H90" activeCellId="0" sqref="H90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.43"/>
@@ -12098,7 +12312,7 @@
       <selection pane="topLeft" activeCell="F95" activeCellId="0" sqref="F95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.43"/>
@@ -14319,7 +14533,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>

--- a/inasistencias-7b/alumnos-7b.xlsx
+++ b/inasistencias-7b/alumnos-7b.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="411">
   <si>
     <t xml:space="preserve">total</t>
   </si>
@@ -81,6 +81,9 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maria Agustina</t>
   </si>
   <si>
@@ -97,9 +100,6 @@
   </si>
   <si>
     <t xml:space="preserve">ebulgarella456@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">Lautaro Martin</t>
@@ -1514,23 +1514,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X9" activeCellId="0" sqref="X9"/>
+      <selection pane="topLeft" activeCell="AB8" activeCellId="0" sqref="AB8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="17.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="31.19"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="9" min="5" style="0" width="8.69"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="5" style="0" width="8.69"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="8.32"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="12" min="11" style="0" width="8.69"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="11" style="0" width="8.69"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="13" style="0" width="9.57"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="19" min="15" style="0" width="8.69"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="15" style="0" width="8.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,6 +1625,15 @@
       <c r="X2" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="Y2" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>45932</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -1695,19 +1704,28 @@
       <c r="W3" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>14</v>
@@ -1762,19 +1780,28 @@
       <c r="W4" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>14</v>
@@ -1783,7 +1810,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>14</v>
@@ -1829,6 +1856,15 @@
       <c r="W5" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1859,10 +1895,10 @@
         <v>14</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>14</v>
@@ -1894,7 +1930,16 @@
         <v>14</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1963,6 +2008,18 @@
       <c r="W7" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.645833333333333</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1981,7 +2038,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>32</v>
@@ -1990,19 +2047,19 @@
         <v>0.680555555555555</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>14</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O8" s="0" t="n">
         <f aca="false">COUNTIF(E8:N8,"P")</f>
@@ -2025,13 +2082,22 @@
         <v>3</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="V8" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA8" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2106,6 +2172,15 @@
       <c r="X9" s="4" t="n">
         <v>0.645833333333333</v>
       </c>
+      <c r="Y9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -2173,6 +2248,15 @@
       <c r="W10" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA10" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -2240,6 +2324,15 @@
       <c r="W11" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA11" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -2273,7 +2366,7 @@
         <v>14</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>14</v>
@@ -2307,6 +2400,15 @@
       <c r="W12" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA12" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -2377,6 +2479,15 @@
       <c r="X13" s="4" t="n">
         <v>0.666666666666667</v>
       </c>
+      <c r="Y13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -2444,6 +2555,15 @@
       <c r="W14" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -2514,6 +2634,15 @@
       <c r="W15" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -2579,10 +2708,19 @@
         <v>0.652777777777778</v>
       </c>
       <c r="V16" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA16" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2611,7 +2749,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>14</v>
@@ -2654,6 +2792,15 @@
       <c r="X17" s="4" t="n">
         <v>0.666666666666667</v>
       </c>
+      <c r="Y17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA17" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -2675,10 +2822,10 @@
         <v>14</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>14</v>
@@ -2690,7 +2837,7 @@
         <v>14</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O18" s="0" t="n">
         <f aca="false">COUNTIF(E18:N18,"P")</f>
@@ -2724,6 +2871,15 @@
       <c r="X18" s="4" t="n">
         <v>0.666666666666667</v>
       </c>
+      <c r="Y18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA18" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -2791,6 +2947,15 @@
       <c r="W19" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA19" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -2821,7 +2986,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L20" s="0" t="s">
         <v>14</v>
@@ -2853,13 +3018,22 @@
         <v>8</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="V20" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="Y20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA20" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2879,7 +3053,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>14</v>
@@ -2894,7 +3068,7 @@
         <v>14</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>14</v>
@@ -2928,6 +3102,15 @@
       <c r="W21" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="Y21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA21" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -2949,22 +3132,22 @@
         <v>14</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O22" s="0" t="n">
         <f aca="false">COUNTIF(E22:N22,"P")</f>
@@ -2987,13 +3170,22 @@
         <v>3</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="V22" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="W22" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="Y22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA22" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3063,7 +3255,16 @@
         <v>14</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="Y23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA23" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3117,6 +3318,18 @@
         <f aca="false">COUNTIF(W3:W23,"P")</f>
         <v>11</v>
       </c>
+      <c r="Y24" s="0" t="n">
+        <f aca="false">COUNTIF(Y3:Y23,"P")</f>
+        <v>20</v>
+      </c>
+      <c r="Z24" s="0" t="n">
+        <f aca="false">COUNTIF(Z3:Z23,"P")</f>
+        <v>16</v>
+      </c>
+      <c r="AA24" s="0" t="n">
+        <f aca="false">COUNTIF(AA3:AA23,"P")</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
@@ -3137,6 +3350,18 @@
         <f aca="false">COUNTIF(W3:W23,"M")</f>
         <v>4</v>
       </c>
+      <c r="Y25" s="0" t="n">
+        <f aca="false">COUNTIF(Y3:Y23,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="0" t="n">
+        <f aca="false">COUNTIF(Z3:Z23,"M")</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="0" t="n">
+        <f aca="false">COUNTIF(AA3:AA23,"M")</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
@@ -3154,6 +3379,18 @@
         <f aca="false">COUNTIF(W3:W23,"T")</f>
         <v>0</v>
       </c>
+      <c r="Y26" s="0" t="n">
+        <f aca="false">COUNTIF(Y3:Y23,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <f aca="false">COUNTIF(Z3:Z23,"T")</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="0" t="n">
+        <f aca="false">COUNTIF(AA3:AA23,"T")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
@@ -3170,6 +3407,18 @@
       <c r="W27" s="0" t="n">
         <f aca="false">SUM(W24:W26)</f>
         <v>15</v>
+      </c>
+      <c r="Y27" s="0" t="n">
+        <f aca="false">SUM(Y24:Y26)</f>
+        <v>20</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <f aca="false">SUM(Z24:Z26)</f>
+        <v>16</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <f aca="false">SUM(AA24:AA26)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3194,7 +3443,7 @@
       <selection pane="topLeft" activeCell="I51" activeCellId="0" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
@@ -3245,13 +3494,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>120</v>
@@ -3268,13 +3517,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>366</v>
@@ -3296,10 +3545,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>359</v>
@@ -3310,10 +3559,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>142</v>
@@ -4189,7 +4438,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
@@ -4271,7 +4520,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>1</v>
@@ -4290,7 +4539,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>1</v>
@@ -4734,7 +4983,7 @@
       <selection pane="topLeft" activeCell="H105" activeCellId="0" sqref="H105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.43"/>
@@ -4780,13 +5029,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>10</v>
@@ -4805,10 +5054,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>9</v>
@@ -4816,10 +5065,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>7</v>
@@ -4827,10 +5076,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>6</v>
@@ -4838,10 +5087,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>5</v>
@@ -4849,10 +5098,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>5</v>
@@ -4860,10 +5109,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>5</v>
@@ -4871,10 +5120,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>5</v>
@@ -4882,10 +5131,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5</v>
@@ -4893,10 +5142,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>5</v>
@@ -4904,10 +5153,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>3</v>
@@ -4915,10 +5164,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>3</v>
@@ -4926,10 +5175,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
@@ -4940,13 +5189,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>9</v>
@@ -6252,7 +6501,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
@@ -6383,7 +6632,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>9</v>
@@ -6437,7 +6686,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>9</v>
@@ -7506,7 +7755,7 @@
       <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
@@ -7557,7 +7806,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -7571,7 +7820,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -7968,7 +8217,7 @@
       <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.40234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.57"/>
@@ -8021,10 +8270,10 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>115</v>
@@ -8046,10 +8295,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>116</v>
@@ -8060,10 +8309,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>117</v>
@@ -8077,13 +8326,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>118</v>
@@ -8105,10 +8354,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>119</v>
@@ -8119,10 +8368,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>120</v>
@@ -8133,10 +8382,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>121</v>
@@ -9112,7 +9361,7 @@
       <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
@@ -9170,7 +9419,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -9184,7 +9433,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -9558,7 +9807,7 @@
       <selection pane="topLeft" activeCell="I46" activeCellId="0" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.64"/>
@@ -9608,13 +9857,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>170</v>
@@ -9636,10 +9885,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>171</v>
@@ -9650,10 +9899,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>172</v>
@@ -9667,13 +9916,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>173</v>
@@ -9695,10 +9944,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>174</v>
@@ -9709,10 +9958,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>175</v>
@@ -9723,10 +9972,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>176</v>
@@ -10719,7 +10968,7 @@
       <selection pane="topLeft" activeCell="H90" activeCellId="0" sqref="H90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.43"/>
@@ -10814,10 +11063,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>217</v>
@@ -10842,7 +11091,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>219</v>
@@ -10859,10 +11108,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>221</v>
@@ -10887,7 +11136,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>223</v>
@@ -10901,7 +11150,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>224</v>
@@ -10915,7 +11164,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>225</v>
@@ -10929,7 +11178,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>215</v>
@@ -12312,7 +12561,7 @@
       <selection pane="topLeft" activeCell="F95" activeCellId="0" sqref="F95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.43"/>
@@ -12407,13 +12656,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>208</v>
@@ -12435,10 +12684,10 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>342</v>
@@ -12449,10 +12698,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>218</v>
@@ -12463,10 +12712,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>220</v>
@@ -12480,13 +12729,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>222</v>
@@ -12508,10 +12757,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>210</v>
@@ -12522,10 +12771,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>124</v>
@@ -12536,10 +12785,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>132</v>
@@ -12550,10 +12799,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>226</v>
@@ -14533,7 +14782,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
@@ -14584,7 +14833,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
@@ -14598,10 +14847,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>365</v>
@@ -14626,7 +14875,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>367</v>
@@ -14640,7 +14889,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>368</v>
